--- a/148 - 大系列 - Equip Passive System - 装备被动系统.xlsx
+++ b/148 - 大系列 - Equip Passive System - 装备被动系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="介绍" sheetId="4" r:id="rId1"/>
@@ -1375,13 +1375,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>为可装备被动状态，指定学习解锁条件的显示</t>
     </r>
     <r>
@@ -3642,13 +3635,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">添加一个解锁条件，即角色当前的 </t>
     </r>
     <r>
@@ -8268,6 +8254,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF7030A0"/>
       <name val="宋体"/>
@@ -8275,8 +8262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -8289,9 +8276,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF7030A0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -9793,7 +9779,7 @@
   <sheetPr/>
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -10011,8 +9997,8 @@
   <sheetPr/>
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -10645,7 +10631,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -10765,8 +10751,8 @@
   <sheetPr/>
   <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
